--- a/excel/New Microsoft Excel Worksheet.xlsx
+++ b/excel/New Microsoft Excel Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prash_rjdaaf2\Desktop\Training\newAssignment\instacuts\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A807F6-4A7C-41F9-830D-974ED383E106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB935432-8E70-4AD0-9DB2-DE0CAE007FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="client" sheetId="1" r:id="rId1"/>
@@ -126,32 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{4AC80ADD-5197-4045-9810-4626639EA4C2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>gender :</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-male
-female</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{72B7EEB1-22AC-4EA4-99C6-65CB52E0746D}">
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{72B7EEB1-22AC-4EA4-99C6-65CB52E0746D}">
       <text>
         <r>
           <rPr>
@@ -175,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{290FB946-3003-4680-B940-742D2F533C4B}">
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{290FB946-3003-4680-B940-742D2F533C4B}">
       <text>
         <r>
           <rPr>
@@ -200,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{0DA3241F-B316-4855-A94B-2AD32AD0E353}">
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{0DA3241F-B316-4855-A94B-2AD32AD0E353}">
       <text>
         <r>
           <rPr>
@@ -232,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
   <si>
     <t>Schema</t>
   </si>
@@ -298,9 +273,6 @@
   </si>
   <si>
     <t>drivingLicense</t>
-  </si>
-  <si>
-    <t>profilePhoto</t>
   </si>
   <si>
     <t>Fields</t>
@@ -809,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -841,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -861,10 +833,10 @@
     <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="11"/>
       <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>1</v>
@@ -891,58 +863,58 @@
         <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75">
       <c r="A6" s="11"/>
       <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="11"/>
       <c r="B7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -968,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="2"/>
@@ -984,19 +956,19 @@
     <row r="12" spans="1:13" ht="15.75">
       <c r="A12" s="11"/>
       <c r="B12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -1007,36 +979,36 @@
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -1051,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F612BED-4E53-4F3F-B3A2-D7DFF216D248}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1061,6 +1033,8 @@
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
@@ -1081,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1097,10 +1071,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>1</v>
@@ -1127,50 +1101,50 @@
         <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="4"/>
@@ -1192,7 +1166,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1206,13 +1180,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -1227,50 +1201,50 @@
         <v>18</v>
       </c>
       <c r="I11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="J12" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -1285,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="2"/>
@@ -1297,89 +1271,72 @@
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" t="s">
         <v>21</v>
-      </c>
-      <c r="M18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/excel/New Microsoft Excel Worksheet.xlsx
+++ b/excel/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prash_rjdaaf2\Desktop\Training\newAssignment\instacuts\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB935432-8E70-4AD0-9DB2-DE0CAE007FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EF8E7A-82A2-4AE7-BD5E-6E1E1ABF314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,17 +136,10 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>serviceCategory:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-hair care</t>
+          <t>serviceCategory:
+1 =&gt; facial care,
+2 =&gt; hair care,
+3 =&gt; nail care</t>
         </r>
       </text>
     </comment>
@@ -160,8 +153,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>specification :
-barber</t>
+          <t xml:space="preserve">specification :
+1 =&gt; hair stylist,
+2 =&gt; barber,
+3 =&gt; cosmetologist
+</t>
         </r>
         <r>
           <rPr>
@@ -202,12 +198,68 @@
         </r>
       </text>
     </comment>
+    <comment ref="G33" authorId="0" shapeId="0" xr:uid="{DA5A8926-300E-4FEA-A808-B08AA6389683}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>category:
+1 =&gt; hair care,
+2 =&gt; face care,
+3 =&gt; nail care</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J33" authorId="0" shapeId="0" xr:uid="{64A8B615-269B-4B5B-9D2F-33270462D6AB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">availableFor :
+1 =&gt; men,
+2 =&gt; women,
+3 =&gt; kids,
+4 =&gt; seniors
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="62">
   <si>
     <t>Schema</t>
   </si>
@@ -345,13 +397,61 @@
   </si>
   <si>
     <t>boolean</t>
+  </si>
+  <si>
+    <t>Table:  serviceProviderServicesImages</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>about_me</t>
+  </si>
+  <si>
+    <t>languages</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>set_work_radios</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>Table:  customServices</t>
+  </si>
+  <si>
+    <t>titel</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>availableFor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +537,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -461,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -493,6 +606,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,16 +1135,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F612BED-4E53-4F3F-B3A2-D7DFF216D248}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
@@ -1043,6 +1157,7 @@
     <col min="12" max="12" width="14.5703125" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21">
@@ -1264,12 +1379,12 @@
       <c r="C16" s="6"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="1:15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="1:15">
       <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
@@ -1297,8 +1412,23 @@
       <c r="J18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="2:13">
+      <c r="K18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1326,9 +1456,23 @@
       <c r="J19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="2:13">
+      <c r="K19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="B20" s="10" t="s">
         <v>27</v>
       </c>
@@ -1336,6 +1480,148 @@
         <v>28</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="18.75">
+      <c r="A23" s="12">
+        <v>4</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="B25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="B26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="B27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="18.75">
+      <c r="A30" s="15">
+        <v>5</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2"/>
+      <c r="B33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2"/>
+      <c r="B34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>37</v>
       </c>
     </row>

--- a/excel/New Microsoft Excel Worksheet.xlsx
+++ b/excel/New Microsoft Excel Worksheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prash_rjdaaf2\Desktop\Training\newAssignment\instacuts\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EF8E7A-82A2-4AE7-BD5E-6E1E1ABF314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3A5EC6-5D91-43C9-8064-A9448809CE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="client" sheetId="1" r:id="rId1"/>
     <sheet name="serviceProvider" sheetId="2" r:id="rId2"/>
+    <sheet name="cartAndOrders" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -254,12 +255,208 @@
         </r>
       </text>
     </comment>
+    <comment ref="E41" authorId="0" shapeId="0" xr:uid="{FBC51119-AB45-4550-8557-141717938BC3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>day :
+"Monday",
+"Tuesday",
+"Wednesday",
+"Thursday",
+"Friday",
+"Saturday",
+"Sunday"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{F1FBCB59-633F-4E13-B63B-28F1616F2636}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>rating : 
+1, 2, 3, 4, 5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F82" authorId="0" shapeId="0" xr:uid="{97E2F354-6EF5-489A-B768-A1E6D3D4052D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>status : 
+1 =&gt; rejected,
+2 =&gt; accepted,
+3 =&gt; pending</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{5E7491D1-4675-4B00-B805-D6093F88B67B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>status : 
+1 =&gt; pending,
+2 =&gt; accepted,
+3 =&gt; cancel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L90" authorId="0" shapeId="0" xr:uid="{99073785-5C07-42F9-8CBA-4E7049DA4844}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>paymentMethod :
+1 =&gt; creditCard</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{0581D0AE-0D17-44F6-8979-B36FEAB22E46}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>star :
+1, 2, 3, 4, 5</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Prashant Pathania</author>
+  </authors>
+  <commentList>
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{DA5E7A42-8188-4778-8C63-FA0AFCF48A18}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>status:
+1 =&gt; pending
+2 =&gt; accepted</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{AA51B86A-91C6-42FA-B5E6-A35E8E0F323C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>order_status :
+1=&gt;pending,
+2=&gt;accepted,
+3=&gt;rejected,
+4=&gt;cancel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{62DCF25F-122A-4AEC-BCFA-3154A32967AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">payment_method : 
+1=&gt;credit_card
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K24" authorId="0" shapeId="0" xr:uid="{01483026-3C67-425C-9849-D629218D9B37}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>order_status : 
+1=&gt;pending,
+2=&gt;accepted,
+3=&gt;rejected,
+4=&gt;canceled,
+5 =&gt; completed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{7025D0A9-16AC-481D-8BC7-DC0803B7C698}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">schedule_type :
+1 =&gt; scheduled_order,
+2 =&gt; custom_order,
+3 =&gt; on_demand_order </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="125">
   <si>
     <t>Schema</t>
   </si>
@@ -432,9 +629,6 @@
     <t>Table:  customServices</t>
   </si>
   <si>
-    <t>titel</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -445,13 +639,205 @@
   </si>
   <si>
     <t>availableFor</t>
+  </si>
+  <si>
+    <t>Table:  serviceDay</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>ref(serviceDay)</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>slote_to</t>
+  </si>
+  <si>
+    <t>slote_from</t>
+  </si>
+  <si>
+    <t>day_id</t>
+  </si>
+  <si>
+    <t>Table:  order</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Table:  scheduleOrder</t>
+  </si>
+  <si>
+    <t>Table:  review</t>
+  </si>
+  <si>
+    <t>ref(order)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> order_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> scheduleOrder_id</t>
+  </si>
+  <si>
+    <t>ref(scheduleOrder)</t>
+  </si>
+  <si>
+    <t>subTotal</t>
+  </si>
+  <si>
+    <t>convenienceFee</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>totalAmount</t>
+  </si>
+  <si>
+    <t>paymentMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> service_id</t>
+  </si>
+  <si>
+    <t>ref(customService)</t>
+  </si>
+  <si>
+    <t>ref(client)</t>
+  </si>
+  <si>
+    <t>Table:  timeSlot</t>
+  </si>
+  <si>
+    <t>timeSlot_id</t>
+  </si>
+  <si>
+    <t>ref(timeSlot)</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> service_provider_id</t>
+  </si>
+  <si>
+    <t>default : pending</t>
+  </si>
+  <si>
+    <t>SCHEMA</t>
+  </si>
+  <si>
+    <t>service_Id</t>
+  </si>
+  <si>
+    <t>ref(custom_service_id)</t>
+  </si>
+  <si>
+    <t>Table:  cart</t>
+  </si>
+  <si>
+    <t>Table:  orderdList</t>
+  </si>
+  <si>
+    <t>order_Id</t>
+  </si>
+  <si>
+    <t>completeStatus</t>
+  </si>
+  <si>
+    <t>default(false)</t>
+  </si>
+  <si>
+    <t>order_status</t>
+  </si>
+  <si>
+    <t>cart_status</t>
+  </si>
+  <si>
+    <t>client_address_id</t>
+  </si>
+  <si>
+    <t>ref(client_address</t>
+  </si>
+  <si>
+    <t>payment_method</t>
+  </si>
+  <si>
+    <t>order_schedule_id</t>
+  </si>
+  <si>
+    <t>ref(schedule)</t>
+  </si>
+  <si>
+    <t>Table:  schedule</t>
+  </si>
+  <si>
+    <t>schedule_type</t>
+  </si>
+  <si>
+    <t>is_booked</t>
+  </si>
+  <si>
+    <t>default (1)</t>
+  </si>
+  <si>
+    <t>foat</t>
+  </si>
+  <si>
+    <t>convenience_fee</t>
+  </si>
+  <si>
+    <t>service_charges</t>
+  </si>
+  <si>
+    <t>total_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> custom_services_id</t>
+  </si>
+  <si>
+    <t>ref(customServices)</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>image_id</t>
+  </si>
+  <si>
+    <t>ref(images)</t>
+  </si>
+  <si>
+    <t>time_slot_id</t>
+  </si>
+  <si>
+    <t>default(1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +936,56 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -574,7 +1010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -607,6 +1043,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1135,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F612BED-4E53-4F3F-B3A2-D7DFF216D248}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1147,7 +1601,7 @@
     <col min="2" max="2" width="35.28515625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -1562,25 +2016,25 @@
         <v>23</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
         <v>57</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>58</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>59</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
+        <v>121</v>
+      </c>
+      <c r="J32" t="s">
         <v>60</v>
-      </c>
-      <c r="I32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J32" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1607,7 +2061,7 @@
         <v>25</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J33" t="s">
         <v>30</v>
@@ -1624,9 +2078,839 @@
       <c r="D34" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="I34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="18.75">
+      <c r="A38" s="15">
+        <v>6</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2"/>
+      <c r="B40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2"/>
+      <c r="B41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2"/>
+      <c r="B42" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="18.75">
+      <c r="A46" s="16">
+        <v>7</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="19"/>
+      <c r="B48" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="19"/>
+      <c r="B49" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="19"/>
+      <c r="B50" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18.75">
+      <c r="A53" s="15">
+        <v>5</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2"/>
+      <c r="B55" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2"/>
+      <c r="B56" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2"/>
+      <c r="B57" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18.75">
+      <c r="A79" s="16">
+        <v>8</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="18"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="19"/>
+      <c r="B81" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" t="s">
+        <v>69</v>
+      </c>
+      <c r="G81" t="s">
+        <v>87</v>
+      </c>
+      <c r="H81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="19"/>
+      <c r="B82" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="19"/>
+      <c r="B83" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" t="s">
+        <v>85</v>
+      </c>
+      <c r="F83" t="s">
+        <v>94</v>
+      </c>
+      <c r="G83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="18.75">
+      <c r="A87" s="16">
+        <v>9</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" s="18"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="19"/>
+      <c r="B89" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E89" t="s">
+        <v>69</v>
+      </c>
+      <c r="F89" t="s">
+        <v>76</v>
+      </c>
+      <c r="G89" t="s">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s">
+        <v>79</v>
+      </c>
+      <c r="J89" t="s">
+        <v>80</v>
+      </c>
+      <c r="K89" t="s">
+        <v>81</v>
+      </c>
+      <c r="L89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="19"/>
+      <c r="B90" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" t="s">
+        <v>26</v>
+      </c>
+      <c r="J90" t="s">
+        <v>26</v>
+      </c>
+      <c r="K90" t="s">
+        <v>26</v>
+      </c>
+      <c r="L90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="19"/>
+      <c r="B91" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="18.75">
+      <c r="A95" s="16">
+        <v>10</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" s="18"/>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="19"/>
+      <c r="B97" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E97" t="s">
+        <v>90</v>
+      </c>
+      <c r="F97" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="19"/>
+      <c r="B98" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="19"/>
+      <c r="B99" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1168796D-2A4D-415B-9DF3-8ACA37C3DBBF}">
+  <dimension ref="A2:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="26.25">
+      <c r="A2" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.75">
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.75">
+      <c r="A13" s="16">
+        <v>2</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18.75">
+      <c r="A21" s="16">
+        <v>3</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18.75">
+      <c r="A29" s="16">
+        <v>4</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/New Microsoft Excel Worksheet.xlsx
+++ b/excel/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prash_rjdaaf2\Desktop\Training\newAssignment\instacuts\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3A5EC6-5D91-43C9-8064-A9448809CE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFFBD60-BD71-48DA-BFA4-B9BFB6A98BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,19 +17,10 @@
     <sheet name="serviceProvider" sheetId="2" r:id="rId2"/>
     <sheet name="cartAndOrders" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -276,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{F1FBCB59-633F-4E13-B63B-28F1616F2636}">
+    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{F1FBCB59-633F-4E13-B63B-28F1616F2636}">
       <text>
         <r>
           <rPr>
@@ -365,7 +356,7 @@
     <author>Prashant Pathania</author>
   </authors>
   <commentList>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{DA5E7A42-8188-4778-8C63-FA0AFCF48A18}">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{DA5E7A42-8188-4778-8C63-FA0AFCF48A18}">
       <text>
         <r>
           <rPr>
@@ -376,7 +367,7 @@
             <family val="2"/>
           </rPr>
           <t>status:
-1 =&gt; pending
+1 =&gt; pending,
 2 =&gt; accepted</t>
         </r>
       </text>
@@ -434,6 +425,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="L24" authorId="0" shapeId="0" xr:uid="{526164C0-91EE-43DA-B85B-D58F5BEC7525}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">payment_method : 
+1=&gt;credit_card
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F32" authorId="0" shapeId="0" xr:uid="{7025D0A9-16AC-481D-8BC7-DC0803B7C698}">
       <text>
         <r>
@@ -456,7 +463,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="126">
   <si>
     <t>Schema</t>
   </si>
@@ -831,6 +838,9 @@
   </si>
   <si>
     <t>default(1)</t>
+  </si>
+  <si>
+    <t>ref(timeSlote)</t>
   </si>
 </sst>
 </file>
@@ -1591,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F612BED-4E53-4F3F-B3A2-D7DFF216D248}">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2174,7 +2184,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:7">
       <c r="A49" s="19"/>
       <c r="B49" s="20" t="s">
         <v>24</v>
@@ -2192,7 +2202,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7">
       <c r="A50" s="19"/>
       <c r="B50" s="20" t="s">
         <v>27</v>
@@ -2204,9 +2214,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18.75">
+    <row r="53" spans="1:7" ht="18.75">
       <c r="A53" s="15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>71</v>
@@ -2214,13 +2224,13 @@
       <c r="C53" s="6"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:7">
       <c r="A55" s="2"/>
       <c r="B55" s="10" t="s">
         <v>22</v>
@@ -2232,13 +2242,16 @@
         <v>118</v>
       </c>
       <c r="E55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" t="s">
         <v>90</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:7">
       <c r="A56" s="2"/>
       <c r="B56" s="10" t="s">
         <v>24</v>
@@ -2250,10 +2263,16 @@
         <v>25</v>
       </c>
       <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="2"/>
       <c r="B57" s="10" t="s">
         <v>27</v>
@@ -2263,6 +2282,9 @@
       </c>
       <c r="D57" s="7" t="s">
         <v>119</v>
+      </c>
+      <c r="E57" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="18.75">
@@ -2519,8 +2541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1168796D-2A4D-415B-9DF3-8ACA37C3DBBF}">
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2574,10 +2596,13 @@
       <c r="E8" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2595,10 +2620,13 @@
       <c r="E9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2615,6 +2643,9 @@
       </c>
       <c r="E10" s="21" t="s">
         <v>97</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75">
@@ -2783,6 +2814,9 @@
       <c r="K23" t="s">
         <v>103</v>
       </c>
+      <c r="L23" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="19"/>
@@ -2816,6 +2850,9 @@
       <c r="K24" t="s">
         <v>30</v>
       </c>
+      <c r="L24" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="19"/>
@@ -2827,6 +2864,9 @@
       </c>
       <c r="D25" t="s">
         <v>85</v>
+      </c>
+      <c r="L25" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18.75">
